--- a/Vent_Photon/datasheets/airflow model.xlsx
+++ b/Vent_Photon/datasheets/airflow model.xlsx
@@ -5,48 +5,79 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\myVentilator\Vent_Photon\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="8328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="8328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Line Loss" sheetId="1" r:id="rId1"/>
     <sheet name="Raw Fan Flow" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Model (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Model!$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Model (2)'!$B$7</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Model!$B$26</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Model (2)'!$B$26</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Model!$E$6</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Model (2)'!$E$7</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -58,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Airflow, cfm</t>
   </si>
@@ -352,11 +383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518331024"/>
-        <c:axId val="518329064"/>
+        <c:axId val="489274184"/>
+        <c:axId val="489274576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518331024"/>
+        <c:axId val="489274184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,12 +444,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518329064"/>
+        <c:crossAx val="489274576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518329064"/>
+        <c:axId val="489274576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518331024"/>
+        <c:crossAx val="489274184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -710,11 +741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="519104936"/>
-        <c:axId val="519111992"/>
+        <c:axId val="489272616"/>
+        <c:axId val="489276928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="519104936"/>
+        <c:axId val="489272616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,12 +802,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519111992"/>
+        <c:crossAx val="489276928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519111992"/>
+        <c:axId val="489276928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519104936"/>
+        <c:crossAx val="489272616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1144,11 +1175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="575271736"/>
-        <c:axId val="575271344"/>
+        <c:axId val="489276536"/>
+        <c:axId val="489277320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="575271736"/>
+        <c:axId val="489276536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,12 +1236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575271344"/>
+        <c:crossAx val="489277320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="575271344"/>
+        <c:axId val="489277320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575271736"/>
+        <c:crossAx val="489276536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1611,8 +1642,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207167040"/>
-        <c:axId val="207165864"/>
+        <c:axId val="489281240"/>
+        <c:axId val="489280064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1809,11 +1840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="581288008"/>
-        <c:axId val="581275856"/>
+        <c:axId val="489277712"/>
+        <c:axId val="489280848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207167040"/>
+        <c:axId val="489281240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,12 +1901,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207165864"/>
+        <c:crossAx val="489280064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207165864"/>
+        <c:axId val="489280064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,12 +1963,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207167040"/>
+        <c:crossAx val="489281240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581275856"/>
+        <c:axId val="489280848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +2011,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581288008"/>
+        <c:crossAx val="489277712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581288008"/>
+        <c:axId val="489277712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +2026,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581275856"/>
+        <c:crossAx val="489280848"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2318,8 +2350,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="581277032"/>
-        <c:axId val="581284088"/>
+        <c:axId val="489282808"/>
+        <c:axId val="489279280"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2516,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="581283696"/>
-        <c:axId val="581286440"/>
+        <c:axId val="489279672"/>
+        <c:axId val="489283200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="581277032"/>
+        <c:axId val="489282808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,12 +2609,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581284088"/>
+        <c:crossAx val="489279280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581284088"/>
+        <c:axId val="489279280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,12 +2671,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581277032"/>
+        <c:crossAx val="489282808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581286440"/>
+        <c:axId val="489283200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,12 +2719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581283696"/>
+        <c:crossAx val="489279672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581283696"/>
+        <c:axId val="489279672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2734,1476 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581286440"/>
+        <c:crossAx val="489283200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15666360454943132"/>
+                  <c:y val="-4.6712962962962963E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.411185070431941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.686137830043769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.975623886779999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.384278825602408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.135794478456972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.44075614306496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.44999982349427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.22830959078701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.73802072163588</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.84160162686879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>173.3354537643601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186.01065578418937</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197.71137233944395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208.36423313523349</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>217.97364881553676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>226.59809969951249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234.3248589944904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>241.25103212209947</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>247.47205098577615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>253.07592980393613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492970008"/>
+        <c:axId val="492973928"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(fan)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7595890965700453E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2062151406630275E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6312612251235997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10928216504823128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15981423051942761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21741614162811515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28188662484947563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35296185594581914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42997585167809743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51161591615063728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59591767152558217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68056600509411735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76336355257123145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84260739015350594</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91722621840452279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98671642434413442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0509888500859947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1102144552743998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.16470572234713</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2148368119562036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492974712"/>
+        <c:axId val="492970792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492970008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492973928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492973928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492970008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492970792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492974712"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492974712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="492970792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wmodel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$F$6:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.979374999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.7011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.165175000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.371600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.320375000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.011500000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.444974999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.620800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.53897500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118.19950000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.60237499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.74760000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.63517500000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.26510000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>167.63737500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176.75200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185.60897500000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194.20830000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>202.54997500000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.63400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492975104"/>
+        <c:axId val="492976672"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dw/dN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.6216400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5701100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.51858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4670500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4155200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3639900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3124600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2094000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1578700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1063400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0548100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0032800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9517500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9002200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8486900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7971600000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7456300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6941000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6425700000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5910400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492977064"/>
+        <c:axId val="492975888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492975104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492976672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492976672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492975104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492975888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492977064"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492977064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="492975888"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2982,6 +4483,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5047,6 +6628,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5815,6 +8428,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6080,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6444,8 +9126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7155,4 +9837,721 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <f>'Raw Fan Flow'!B20</f>
+        <v>3.3095E-12</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'Raw Fan Flow'!C20</f>
+        <v>w^5 +</v>
+      </c>
+      <c r="D1">
+        <f>'Raw Fan Flow'!D20</f>
+        <v>-2.5034999999999999E-9</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'Raw Fan Flow'!E20</f>
+        <v>w^4+</v>
+      </c>
+      <c r="F1">
+        <f>'Raw Fan Flow'!F20</f>
+        <v>5.5959000000000005E-7</v>
+      </c>
+      <c r="G1" t="str">
+        <f>'Raw Fan Flow'!G20</f>
+        <v xml:space="preserve">w^3 + </v>
+      </c>
+      <c r="H1">
+        <f>'Raw Fan Flow'!H20</f>
+        <v>-2.3805E-5</v>
+      </c>
+      <c r="I1" t="str">
+        <f>'Raw Fan Flow'!I20</f>
+        <v xml:space="preserve">w^2 + </v>
+      </c>
+      <c r="J1">
+        <f>'Raw Fan Flow'!J20</f>
+        <v>-7.9313000000000005E-3</v>
+      </c>
+      <c r="K1" t="str">
+        <f>'Raw Fan Flow'!K20</f>
+        <v xml:space="preserve">w + </v>
+      </c>
+      <c r="L1">
+        <f>'Raw Fan Flow'!L20</f>
+        <v>1.9028</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <f>'Raw Line Loss'!B25</f>
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="C2" t="str">
+        <f>'Raw Line Loss'!C25</f>
+        <v>log10(w) +</v>
+      </c>
+      <c r="D2">
+        <f>'Raw Line Loss'!D25</f>
+        <v>-4.4383999999999997</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>-5.1529999999999996E-3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2.6216400000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1E-4</v>
+      </c>
+      <c r="C6">
+        <f>((A6/100)^2*($B$1*B6^5+$D$1*B6^4+$F$1*B6^3+$H$1*B6^2+$J$1*B6+$L$1))*2</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>10^($B$2*LOG10(B6)+$D$2)</f>
+        <v>1.0804383723712257E-12</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>-1.0804383723712257E-12</v>
+      </c>
+      <c r="F6">
+        <f>$B$3*A6^2+$D$3*A6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>2*$B$3*A6+$D$3</f>
+        <v>2.6216400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>18.411185070431941</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C26" si="0">((A7/100)^2*($B$1*B7^5+$D$1*B7^4+$F$1*B7^3+$H$1*B7^2+$J$1*B7+$L$1))*2</f>
+        <v>8.7595890965700453E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D26" si="1">10^($B$2*LOG10(B7)+$D$2)</f>
+        <v>8.7595912565137605E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="2">C7-D7</f>
+        <v>-2.1599437152047818E-9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F26" si="3">$B$3*A7^2+$D$3*A7</f>
+        <v>12.979374999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G26" si="4">2*$B$3*A7+$D$3</f>
+        <v>2.5701100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>36.686137830043769</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.2062151406630275E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.2062158116313362E-2</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>-6.7096830869139978E-9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>25.7011</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2.51858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>53.975623886779999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6.6312612251235997E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>6.6312593965187933E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E26" si="5">C9-D9</f>
+        <v>1.8286048064641847E-8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>38.165175000000005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2.4670500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>70.384278825602408</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.10928216504823128</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.10928214270848646</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>2.23397448179119E-8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>50.371600000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>2.4155200000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>86.135794478456972</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.15981423051942761</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.159814306772985</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>-7.6253557385053128E-8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>62.320375000000013</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>2.3639900000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>101.44075614306496</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.21741614162811515</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.21741619115813557</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>-4.9530020418409038E-8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>74.011500000000012</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>2.3124600000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>116.44999982349427</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.28188662484947563</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.28188666034487081</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>-3.5495395178664069E-8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>85.444974999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>2.2609300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>131.22830959078701</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.35296185594581914</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.35296189301038683</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>-3.7064567692812744E-8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>96.620800000000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>2.2094000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>145.73802072163588</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.42997585167809743</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.42997592135700724</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>-6.9678909808690292E-8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>107.53897500000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>2.1578700000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>159.84160162686879</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.51161591615063728</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.51161615099344571</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>-2.3484280842200889E-7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>118.19950000000003</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>2.1063400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>173.3354537643601</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.59591767152558217</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.59591743238161121</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>2.3914397095925466E-7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>128.60237499999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>2.0548100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>186.01065578418937</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.68056600509411735</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.68056589953693969</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>1.0555717766536077E-7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>138.74760000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>2.0032800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>197.71137233944395</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.76336355257123145</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.76336380935712111</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>-2.5678588966293603E-7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>148.63517500000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1.9517500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>208.36423313523349</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.84260739015350594</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.84260728512989347</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>1.050236124733317E-7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>158.26510000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>1.9002200000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>217.97364881553676</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.91722621840452279</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.91722591600957215</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>3.0239495063533184E-7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>167.63737500000002</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>1.8486900000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>226.59809969951249</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.98671642434413442</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.98671626651176758</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>1.5783236684274726E-7</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>176.75200000000001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>1.7971600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <v>234.3248589944904</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.0509888500859947</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.0509889785712874</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>-1.2848529262754482E-7</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>185.60897500000002</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>1.7456300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <v>241.25103212209947</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.1102144552743998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.1102147598500167</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>-3.0457561694952062E-7</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>194.20830000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>1.6941000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>247.47205098577615</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.16470572234713</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.1647057746378566</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>-5.2290726637593821E-8</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>202.54997500000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>1.6425700000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>253.07592980393613</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.2148368119562036</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.214837202380078</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>-3.9042387434129466E-7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>210.63400000000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>1.5910400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Vent_Photon/datasheets/airflow model.xlsx
+++ b/Vent_Photon/datasheets/airflow model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="8328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="8328" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Line Loss" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -383,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489274184"/>
-        <c:axId val="489274576"/>
+        <c:axId val="495977136"/>
+        <c:axId val="495974000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489274184"/>
+        <c:axId val="495977136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,12 +443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489274576"/>
+        <c:crossAx val="495974000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489274576"/>
+        <c:axId val="495974000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489274184"/>
+        <c:crossAx val="495977136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -570,7 +569,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -658,7 +656,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -741,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489272616"/>
-        <c:axId val="489276928"/>
+        <c:axId val="495974784"/>
+        <c:axId val="495977528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489272616"/>
+        <c:axId val="495974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,12 +799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489276928"/>
+        <c:crossAx val="495977528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489276928"/>
+        <c:axId val="495977528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489272616"/>
+        <c:crossAx val="495974784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1175,11 +1172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489276536"/>
-        <c:axId val="489277320"/>
+        <c:axId val="495975568"/>
+        <c:axId val="495980272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489276536"/>
+        <c:axId val="495975568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,12 +1233,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489277320"/>
+        <c:crossAx val="495980272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489277320"/>
+        <c:axId val="495980272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489276536"/>
+        <c:crossAx val="495975568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1362,6 +1359,86 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ECMF-150</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> with 50' 6" Duct &amp; Filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1375,13 +1452,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1473,10 +1564,7 @@
                   <a:pPr>
                     <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="0070C0"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1642,8 +1730,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489281240"/>
-        <c:axId val="489280064"/>
+        <c:axId val="495981056"/>
+        <c:axId val="495973608"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1686,6 +1774,54 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7029746281714788E-3"/>
+                  <c:y val="0.36027777777777775"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Model!$A$6:$A$26</c:f>
@@ -1840,11 +1976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489277712"/>
-        <c:axId val="489280848"/>
+        <c:axId val="496578520"/>
+        <c:axId val="418475008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489281240"/>
+        <c:axId val="495981056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,12 +2037,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489280064"/>
+        <c:crossAx val="495973608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489280064"/>
+        <c:axId val="495973608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,12 +2099,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489281240"/>
+        <c:crossAx val="495981056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489280848"/>
+        <c:axId val="418475008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2147,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489277712"/>
+        <c:crossAx val="496578520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489277712"/>
+        <c:axId val="496578520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489280848"/>
+        <c:crossAx val="418475008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2122,6 +2258,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ECMF-150 with 50' 6" Duct &amp; Filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2350,8 +2516,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489282808"/>
-        <c:axId val="489279280"/>
+        <c:axId val="496582832"/>
+        <c:axId val="496585184"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2548,11 +2714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489279672"/>
-        <c:axId val="489283200"/>
+        <c:axId val="496588320"/>
+        <c:axId val="496587928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489282808"/>
+        <c:axId val="496582832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,12 +2775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489279280"/>
+        <c:crossAx val="496585184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489279280"/>
+        <c:axId val="496585184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,12 +2837,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489282808"/>
+        <c:crossAx val="496582832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489283200"/>
+        <c:axId val="496587928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,12 +2885,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489279672"/>
+        <c:crossAx val="496588320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489279672"/>
+        <c:axId val="496588320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489283200"/>
+        <c:crossAx val="496587928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2830,6 +2996,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Two Fans</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Series Same Duty Cycle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3110,8 +3306,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492970008"/>
-        <c:axId val="492973928"/>
+        <c:axId val="496580088"/>
+        <c:axId val="496584008"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3308,11 +3504,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492974712"/>
-        <c:axId val="492970792"/>
+        <c:axId val="496579304"/>
+        <c:axId val="496577736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492970008"/>
+        <c:axId val="496580088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,12 +3565,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492973928"/>
+        <c:crossAx val="496584008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492973928"/>
+        <c:axId val="496584008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,12 +3627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492970008"/>
+        <c:crossAx val="496580088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492970792"/>
+        <c:axId val="496577736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,12 +3675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492974712"/>
+        <c:crossAx val="496579304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492974712"/>
+        <c:axId val="496579304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492970792"/>
+        <c:crossAx val="496577736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3590,6 +3786,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Two Fans in Series Same Duty Cycle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3818,8 +4044,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492975104"/>
-        <c:axId val="492976672"/>
+        <c:axId val="496588712"/>
+        <c:axId val="496585968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4016,11 +4242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492977064"/>
-        <c:axId val="492975888"/>
+        <c:axId val="496579696"/>
+        <c:axId val="496589104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492975104"/>
+        <c:axId val="496588712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4077,12 +4303,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492976672"/>
+        <c:crossAx val="496585968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492976672"/>
+        <c:axId val="496585968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,12 +4365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492975104"/>
+        <c:crossAx val="496588712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492975888"/>
+        <c:axId val="496589104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,12 +4413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492977064"/>
+        <c:crossAx val="496579696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492977064"/>
+        <c:axId val="496579696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4202,7 +4428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492975888"/>
+        <c:crossAx val="496589104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8368,15 +8594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8467,13 +8693,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9126,8 +9352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9843,8 +10069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Vent_Photon/datasheets/airflow model.xlsx
+++ b/Vent_Photon/datasheets/airflow model.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Airflow, cfm</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>effective length of our system ~ 100 feet, by chance</t>
-  </si>
-  <si>
-    <t>w, cfm</t>
   </si>
   <si>
     <t>p, inWater</t>
@@ -125,21 +122,6 @@
   </si>
   <si>
     <t>p=</t>
-  </si>
-  <si>
-    <t>w^5 +</t>
-  </si>
-  <si>
-    <t>w^4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w^3 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">w^2 + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">w + </t>
   </si>
   <si>
     <t>)</t>
@@ -186,11 +168,119 @@
   <si>
     <t>dw/dN</t>
   </si>
+  <si>
+    <t>p(fan), inH20</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Red=Reynolds number duct = rho*u*d/mu</t>
+  </si>
+  <si>
+    <t>Q = air flow cfm</t>
+  </si>
+  <si>
+    <t>d = duct diameter, ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu=fluid viscocity = 1.81e-5 kg/m/s = </t>
+  </si>
+  <si>
+    <t>q, cfm</t>
+  </si>
+  <si>
+    <t>dq/dN</t>
+  </si>
+  <si>
+    <t>qmodel, cfm</t>
+  </si>
+  <si>
+    <t>q(N)=</t>
+  </si>
+  <si>
+    <t>q^5 +</t>
+  </si>
+  <si>
+    <t>q^4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q^3 + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q^2 + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q + </t>
+  </si>
+  <si>
+    <t>ft^2</t>
+  </si>
+  <si>
+    <t>Ax = duct cross section = pi*d^2, ft^2=</t>
+  </si>
+  <si>
+    <t>lbm/ft/hr</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>rho=air density =</t>
+  </si>
+  <si>
+    <t>lbm/ft^3</t>
+  </si>
+  <si>
+    <t>u=fluid velocity = Q/Ax, ft/hr</t>
+  </si>
+  <si>
+    <t>u, ft/hr</t>
+  </si>
+  <si>
+    <t>Pr=Prandtl number = mu*cp/k</t>
+  </si>
+  <si>
+    <t>cp=specific heat, Btu/lbm/F</t>
+  </si>
+  <si>
+    <t>k=thermal conductivity, Btu/(hr-ft^2-F/ft)</t>
+  </si>
+  <si>
+    <t>Dittus Boelter Equation</t>
+  </si>
+  <si>
+    <t>Nuo</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>BTU/hr/ft^2/F</t>
+  </si>
+  <si>
+    <t>Nuo=Nusselt Number=hf/h= ratio forced convection to conduction</t>
+  </si>
+  <si>
+    <t>h = indoor air/wall convection coeff =</t>
+  </si>
+  <si>
+    <t>hf, BTU/hr/ft^2/F</t>
+  </si>
+  <si>
+    <t>log10(Red)</t>
+  </si>
+  <si>
+    <t>log10(hf)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,11 +310,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +362,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,6 +675,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -656,6 +763,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -963,7 +1071,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.677537182852145E-2"/>
-          <c:y val="0.13467592592592595"/>
+          <c:y val="0.13467592226196168"/>
           <c:w val="0.87755796150481191"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -1498,7 +1606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>w</c:v>
+                  <c:v>q, cfm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1545,8 +1653,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15666360454943132"/>
-                  <c:y val="-4.6712962962962963E-2"/>
+                  <c:x val="-0.1573834208223972"/>
+                  <c:y val="-6.1018518518518521E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
@@ -1652,7 +1760,7 @@
             <c:numRef>
               <c:f>Model!$B$6:$B$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1E-4</c:v>
@@ -1745,7 +1853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p(fan)</c:v>
+                  <c:v>p(fan), inH20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1898,7 +2006,7 @@
             <c:numRef>
               <c:f>Model!$C$6:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2062,7 +2170,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2110,7 +2218,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2333,7 +2441,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wmodel</c:v>
+                  <c:v>qmodel, cfm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2438,7 +2546,7 @@
             <c:numRef>
               <c:f>Model!$F$6:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2531,7 +2639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dw/dN</c:v>
+                  <c:v>dq/dN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2636,7 +2744,7 @@
             <c:numRef>
               <c:f>Model!$G$6:$G$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.6216400000000002</c:v>
@@ -2800,7 +2908,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2848,7 +2956,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2982,6 +3090,947 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hf, BTU/hr/ft^2/F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$I$6:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.5784627272691076E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3329.8385404993082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6727.9327016711513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10013.885723345689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13170.124014337754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16207.913302867964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19147.132681105031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22008.841441745673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24812.105562902845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27572.079265698809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30298.931794510208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32996.657935910109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35662.588762456537</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38287.250582854642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40855.237459245465</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43347.508178691663</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45744.165299902015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48027.65442857099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50184.6533478989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52207.646037546845</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54094.271973003873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$L$6:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>12.386666884704381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.835468423760148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.061766314737149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.10364122012497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.35830170621125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.048476102733147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.319667292891523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.273378106254413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.980928417662213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.490542492801325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.830360799011359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.010941489066497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.027300988595556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.862130399581829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103.49102791538974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107.88800499493766</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112.03127985365361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.90637252804352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.50853979436818</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>122.84127314878036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571780672"/>
+        <c:axId val="571786944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571780672"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571786944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571786944"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571780672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log10(hf)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20857917760279965"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$M$6:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>3.5224231756473978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8278816386401773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.000602631001021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1195898644446229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2097271049543386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2821037467636831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3425971816401363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3946636201992275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4404695183571166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4814273174815966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.518469954620481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5522128656044138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5830541806708425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6112477390531712</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6369641372136581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6603357073717664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6814913771115219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7005709285931276</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.717734111982006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7331512802226463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$N$6:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>1.0929544582466599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3772236912685247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5193260519048848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6138802961281882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6844710404812877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7407453009765368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7875997898018208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8278432361571624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8632093838861647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8948173307499576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9234013353306418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9494433946927667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9732539700595801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9950299649231971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0149027005587734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0329731624392848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0493392974130091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0641073141144473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0773989400377721</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0893443088995292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506649256"/>
+        <c:axId val="506648864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506649256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log10(Red)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506648864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506648864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506649256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3771,7 +4820,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4789,6 +5838,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7886,6 +9015,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8593,16 +10754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8623,16 +10784,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8646,6 +10807,104 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>135683</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>456154</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12304823" y="2796540"/>
+          <a:ext cx="2149271" cy="1680883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8988,7 +11247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -9082,13 +11341,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1.8819999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>-4.4383999999999997</v>
@@ -9105,7 +11364,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9115,16 +11374,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -9139,13 +11398,13 @@
         <v>1.9028</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -9306,37 +11565,37 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>3.3095E-12</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>-2.5034999999999999E-9</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1">
         <v>5.5959000000000005E-7</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1">
         <v>-2.3805E-5</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1">
         <v>-7.9313000000000005E-3</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>1.9028</v>
@@ -9350,21 +11609,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <f>'Raw Fan Flow'!B20</f>
@@ -9372,7 +11635,7 @@
       </c>
       <c r="C1" t="str">
         <f>'Raw Fan Flow'!C20</f>
-        <v>w^5 +</v>
+        <v>q^5 +</v>
       </c>
       <c r="D1">
         <f>'Raw Fan Flow'!D20</f>
@@ -9380,7 +11643,7 @@
       </c>
       <c r="E1" t="str">
         <f>'Raw Fan Flow'!E20</f>
-        <v>w^4+</v>
+        <v>q^4+</v>
       </c>
       <c r="F1">
         <f>'Raw Fan Flow'!F20</f>
@@ -9388,7 +11651,7 @@
       </c>
       <c r="G1" t="str">
         <f>'Raw Fan Flow'!G20</f>
-        <v xml:space="preserve">w^3 + </v>
+        <v xml:space="preserve">q^3 + </v>
       </c>
       <c r="H1">
         <f>'Raw Fan Flow'!H20</f>
@@ -9396,7 +11659,7 @@
       </c>
       <c r="I1" t="str">
         <f>'Raw Fan Flow'!I20</f>
-        <v xml:space="preserve">w^2 + </v>
+        <v xml:space="preserve">q^2 + </v>
       </c>
       <c r="J1">
         <f>'Raw Fan Flow'!J20</f>
@@ -9404,19 +11667,19 @@
       </c>
       <c r="K1" t="str">
         <f>'Raw Fan Flow'!K20</f>
-        <v xml:space="preserve">w + </v>
+        <v xml:space="preserve">q + </v>
       </c>
       <c r="L1">
         <f>'Raw Fan Flow'!L20</f>
         <v>1.9028</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <f>'Raw Line Loss'!B25</f>
@@ -9431,632 +11694,1309 @@
         <v>-4.4383999999999997</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>-5.1529999999999996E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2.6216400000000002</v>
       </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3">
+        <v>4.3790000000000003E-2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <f>PI()*$W$7^2/4</f>
+        <v>0.19634954084936207</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1E-4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <f>(A6/100)^2*($B$1*B6^5+$D$1*B6^4+$F$1*B6^3+$H$1*B6^2+$J$1*B6+$L$1)</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f>10^($B$2*LOG10(B6)+$D$2)</f>
         <v>1.0804383723712257E-12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>C6-D6</f>
         <v>-1.0804383723712257E-12</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f>$B$3*A6^2+$D$3*A6</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f>2*$B$3*A6+$D$3</f>
         <v>2.6216400000000002</v>
       </c>
+      <c r="H6" s="7">
+        <f>B6/$W$5*60</f>
+        <v>3.0557749073643906E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>$W$8*H6*$W$7/$W$3</f>
+        <v>2.5784627272691076E-2</v>
+      </c>
+      <c r="J6">
+        <f>(0.79*LN(I6)-1.64)^-2</f>
+        <v>4.8735073287015596E-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>12.914045664821364</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <f t="shared" ref="C7:C26" si="0">(A7/100)^2*($B$1*B7^5+$D$1*B7^4+$F$1*B7^3+$H$1*B7^2+$J$1*B7+$L$1)</f>
         <v>4.4938539022890481E-3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:D26" si="1">10^($B$2*LOG10(B7)+$D$2)</f>
         <v>4.4938573467082224E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" ref="E7" si="2">C7-D7</f>
         <v>-3.4444191743601693E-9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F26" si="3">$B$3*A7^2+$D$3*A7</f>
         <v>12.979374999999999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <f t="shared" ref="G7:G26" si="4">2*$B$3*A7+$D$3</f>
         <v>2.5701100000000001</v>
       </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H26" si="5">B7/$W$5*60</f>
+        <v>3946.2416695119009</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7:I26" si="6">$W$8*H7*$W$7/$W$3</f>
+        <v>3329.8385404993082</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J26" si="7">(0.79*LN(I7)-1.64)^-2</f>
+        <v>4.3997719674364777E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K26" si="8">(J7/8)*(I7-1000)*$W$11/(1+12.7*(J7/8)^0.5*($W$11^0.666-1))</f>
+        <v>11.260606258822163</v>
+      </c>
+      <c r="L7">
+        <f>K7*$W$27</f>
+        <v>12.386666884704381</v>
+      </c>
+      <c r="M7">
+        <f>LOG10(I7)</f>
+        <v>3.5224231756473978</v>
+      </c>
+      <c r="N7">
+        <f>LOG10(L7)</f>
+        <v>1.0929544582466599</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7">
+        <f>6/12</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>26.092805726910068</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>1.6884634818450889E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>1.6884651817923983E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f>C8-D8</f>
         <v>-1.6999473093082251E-8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>25.7011</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <f t="shared" si="4"/>
         <v>2.51858</v>
       </c>
+      <c r="H8" s="7">
+        <f t="shared" si="5"/>
+        <v>7973.3741003025643</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="6"/>
+        <v>6727.9327016711513</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>3.5291838778387631E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>21.668607657963769</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L26" si="9">K8*$W$27</f>
+        <v>23.835468423760148</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M26" si="10">LOG10(I8)</f>
+        <v>3.8278816386401773</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N26" si="11">LOG10(L8)</f>
+        <v>1.3772236912685247</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>38.836651069032762</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>3.5690539994346279E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>3.5690531625737411E-2</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E26" si="5">C9-D9</f>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E26" si="12">C9-D9</f>
         <v>8.3686088683809778E-9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>38.165175000000005</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <f t="shared" si="4"/>
         <v>2.4670500000000004</v>
       </c>
+      <c r="H9" s="7">
+        <f t="shared" si="5"/>
+        <v>11867.606382281674</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="6"/>
+        <v>10013.885723345689</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>3.1467560948842163E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>30.056151195215588</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>33.061766314737149</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="10"/>
+        <v>4.000602631001021</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="11"/>
+        <v>1.5193260519048848</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>51.077426386870641</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>5.9770568692603172E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>5.9770513966486492E-2</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="5"/>
+      <c r="E10" s="4">
+        <f t="shared" si="12"/>
         <v>5.4726116680003933E-8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>50.371600000000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <f t="shared" si="4"/>
         <v>2.4155200000000003</v>
       </c>
+      <c r="H10" s="7">
+        <f t="shared" si="5"/>
+        <v>15608.111788575112</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="6"/>
+        <v>13170.124014337754</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>2.9183535503407999E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>37.36694656374997</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>41.10364122012497</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="10"/>
+        <v>4.1195898644446229</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="11"/>
+        <v>1.6138802961281882</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>62.858823327006299</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>8.8333537285737507E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>8.8333467120359541E-2</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="5"/>
+      <c r="E11" s="4">
+        <f t="shared" si="12"/>
         <v>7.0165377966113773E-8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>62.320375000000013</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <f t="shared" si="4"/>
         <v>2.3639900000000003</v>
       </c>
+      <c r="H11" s="7">
+        <f t="shared" si="5"/>
+        <v>19208.241502911726</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="6"/>
+        <v>16207.913302867964</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>2.7614874171778603E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>43.962092460192039</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>48.35830170621125</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>4.2097271049543386</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>1.6844710404812877</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>74.25793857173214</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>0.12087534593380672</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>0.12087545360938616</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="5"/>
+      <c r="E12" s="4">
+        <f t="shared" si="12"/>
         <v>-1.0767557943880401E-7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f t="shared" si="3"/>
         <v>74.011500000000012</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <f t="shared" si="4"/>
         <v>2.3124600000000002</v>
       </c>
+      <c r="H12" s="7">
+        <f t="shared" si="5"/>
+        <v>22691.554536010539</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="6"/>
+        <v>19147.132681105031</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>2.6445071805291917E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>50.044069184302856</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>55.048476102733147</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>4.2821037467636831</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>1.7407453009765368</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>35</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>85.356445951249427</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>0.157103831768374</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>0.15710382586500007</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
+      <c r="E13" s="4">
+        <f t="shared" si="12"/>
         <v>5.903373928584088E-9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" si="3"/>
         <v>85.444974999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <f t="shared" si="4"/>
         <v>2.2609300000000001</v>
       </c>
+      <c r="H13" s="7">
+        <f t="shared" si="5"/>
+        <v>26083.008571963281</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="6"/>
+        <v>22008.841441745673</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>2.5523432535628877E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>55.745152084446836</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>61.319667292891523</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>4.3425971816401363</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>1.7875997898018208</v>
+      </c>
+      <c r="S13" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>96.22828866400468</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>0.19686820326659221</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>0.19686830344254228</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
+      <c r="E14" s="4">
+        <f t="shared" si="12"/>
         <v>-1.0017595006295288E-7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f t="shared" si="3"/>
         <v>96.620800000000003</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <f t="shared" si="4"/>
         <v>2.2094000000000005</v>
       </c>
+      <c r="H14" s="7">
+        <f t="shared" si="5"/>
+        <v>29405.198987808275</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="6"/>
+        <v>24812.105562902845</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>2.4768221515218E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>61.157616460231282</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>67.273378106254413</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="10"/>
+        <v>4.3946636201992275</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>1.8278432361571624</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>45</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>106.93223902018879</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>0.24009484956487362</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>0.24009465894304488</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
+      <c r="E15" s="4">
+        <f t="shared" si="12"/>
         <v>1.9062182873841316E-7</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <f t="shared" si="3"/>
         <v>107.53897500000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="4"/>
         <v>2.1578700000000004</v>
       </c>
+      <c r="H15" s="7">
+        <f t="shared" si="5"/>
+        <v>32676.08527861843</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="6"/>
+        <v>27572.079265698809</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>2.4131193385422058E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>66.346298561511091</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>72.980928417662213</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>4.4404695183571166</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="11"/>
+        <v>1.8632093838861647</v>
+      </c>
+      <c r="S15" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>50</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>117.50773619520307</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>0.28672457298579979</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>0.28672468016316455</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
+      <c r="E16" s="4">
+        <f t="shared" si="12"/>
         <v>-1.0717736476095752E-7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>118.19950000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <f t="shared" si="4"/>
         <v>2.1063400000000003</v>
       </c>
+      <c r="H16" s="7">
+        <f t="shared" si="5"/>
+        <v>35907.719168649586</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="6"/>
+        <v>30298.931794510208</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>2.35821729115826E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>71.355038629819376</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>78.490542492801325</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="10"/>
+        <v>4.4814273174815966</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="11"/>
+        <v>1.8948173307499576</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>55</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>127.97027308925814</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>0.33665064983154031</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>0.33665054358803415</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
+      <c r="E17" s="4">
+        <f t="shared" si="12"/>
         <v>1.0624350615939804E-7</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>128.60237499999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <f t="shared" si="4"/>
         <v>2.0548100000000002</v>
       </c>
+      <c r="H17" s="7">
+        <f t="shared" si="5"/>
+        <v>39104.834939472363</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="6"/>
+        <v>32996.657935910109</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>2.3101610298258662E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>76.209418908192134</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>83.830360799011359</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>4.518469954620481</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="11"/>
+        <v>1.9234013353306418</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>60</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>138.30949885487533</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>0.38965810083777364</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>0.38965789362465036</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
+      <c r="E18" s="4">
+        <f t="shared" si="12"/>
         <v>2.0721312327109942E-7</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>138.74760000000001</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <f t="shared" si="4"/>
         <v>2.0032800000000002</v>
       </c>
+      <c r="H18" s="7">
+        <f t="shared" si="5"/>
+        <v>42264.269605087196</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="6"/>
+        <v>35662.588762456537</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>2.2676526944505424E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>80.919037717333168</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>89.010941489066497</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>4.5522128656044138</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>1.9494433946927667</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>65</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>148.48867186614447</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>0.44537555373483761</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>0.4453760235926626</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="5"/>
+      <c r="E19" s="4">
+        <f t="shared" si="12"/>
         <v>-4.6985782498065731E-7</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>148.63517500000003</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <f t="shared" si="4"/>
         <v>1.9517500000000001</v>
       </c>
+      <c r="H19" s="7">
+        <f t="shared" si="5"/>
+        <v>45374.795751642901</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="6"/>
+        <v>38287.250582854642</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>2.2298176780438498E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>85.479364535086859</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>94.027300988595556</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="10"/>
+        <v>4.5830541806708425</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="11"/>
+        <v>1.9732539700595801</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>70</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>158.44804358493062</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>0.50325358740720727</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <f t="shared" si="1"/>
         <v>0.50325385502989284</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
+      <c r="E20" s="4">
+        <f t="shared" si="12"/>
         <v>-2.6762268556801416E-7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>158.26510000000002</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <f t="shared" si="4"/>
         <v>1.9002200000000002</v>
       </c>
+      <c r="H20" s="7">
+        <f t="shared" si="5"/>
+        <v>48418.155570781033</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="6"/>
+        <v>40855.237459245465</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>2.1960532041624622E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>89.874663999619841</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>98.862130399581829</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>4.6112477390531712</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>1.9950299649231971</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>75</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>168.11376685906848</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>0.56258129469922358</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <f t="shared" si="1"/>
         <v>0.56258140288174074</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
+      <c r="E21" s="4">
+        <f t="shared" si="12"/>
         <v>-1.0818251716671057E-7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>167.63737500000002</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <f t="shared" si="4"/>
         <v>1.8486900000000004</v>
       </c>
+      <c r="H21" s="7">
+        <f t="shared" si="5"/>
+        <v>51371.783035044871</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="6"/>
+        <v>43347.508178691663</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>2.1659197153350476E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>94.082752650354294</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>103.49102791538974</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>4.6369641372136581</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="11"/>
+        <v>2.0149027005587734</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>80</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>177.40867384323377</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>0.62254560012585813</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <f t="shared" si="1"/>
         <v>0.6225448814824287</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
+      <c r="E22" s="4">
+        <f t="shared" si="12"/>
         <v>7.1864342943150916E-7</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>176.75200000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <f t="shared" si="4"/>
         <v>1.7971600000000003</v>
       </c>
+      <c r="H22" s="7">
+        <f t="shared" si="5"/>
+        <v>54212.097387894704</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="6"/>
+        <v>45744.165299902015</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>2.1390685541692912E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>98.080004540852414</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>107.88800499493766</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="10"/>
+        <v>4.6603357073717664</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>2.0329731624392848</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>85</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>186.26468368397892</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>0.68231491873445738</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <f t="shared" si="1"/>
         <v>0.68231612848134748</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
+      <c r="E23" s="4">
+        <f t="shared" si="12"/>
         <v>-1.2097468901073327E-6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
         <v>185.60897500000002</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <f t="shared" si="4"/>
         <v>1.7456300000000002</v>
       </c>
+      <c r="H23" s="7">
+        <f t="shared" si="5"/>
+        <v>56918.294652966819</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="6"/>
+        <v>48027.65442857099</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>2.1151914282210495E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>101.84661804877601</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>112.03127985365361</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="10"/>
+        <v>4.6814913771115219</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>2.0493392974130091</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>90</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>194.63012909653457</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>0.74112776710294581</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <f t="shared" si="1"/>
         <v>0.74112822482274321</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
+      <c r="E24" s="4">
+        <f t="shared" si="12"/>
         <v>-4.5771979739761548E-7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>194.20830000000001</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <f t="shared" si="4"/>
         <v>1.6941000000000002</v>
       </c>
+      <c r="H24" s="7">
+        <f t="shared" si="5"/>
+        <v>59474.586471028233</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="6"/>
+        <v>50184.6533478989</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>2.0939986995888501E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>105.36942957094864</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>115.90637252804352</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="10"/>
+        <v>4.7005709285931276</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>2.0641073141144473</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>95</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>202.47586085078231</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>0.7983507058681597</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <f t="shared" si="1"/>
         <v>0.79835208567537286</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
+      <c r="E25" s="4">
+        <f t="shared" si="12"/>
         <v>-1.379807213153228E-6</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>202.54997500000002</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <f t="shared" si="4"/>
         <v>1.6425700000000003</v>
       </c>
+      <c r="H25" s="7">
+        <f t="shared" si="5"/>
+        <v>61872.065493482449</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="6"/>
+        <v>52207.646037546845</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>2.0752055372387272E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>108.64412708578924</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>119.50853979436818</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="10"/>
+        <v>4.717734111982006</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>2.0773989400377721</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>100</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>209.79272417211169</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>0.85351282723747968</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <f t="shared" si="1"/>
         <v>0.85351188868564321</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="5"/>
+      <c r="E26" s="4">
+        <f t="shared" si="12"/>
         <v>9.3855183647129081E-7</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>210.63400000000004</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <f t="shared" si="4"/>
         <v>1.5910400000000002</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="5"/>
+        <v>64107.934227275771</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="6"/>
+        <v>54094.271973003873</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>2.0585390741730904E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>111.67388468070941</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>122.84127314878036</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="10"/>
+        <v>4.7331512802226463</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>2.0893443088995292</v>
+      </c>
+      <c r="S26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>57</v>
+      </c>
+      <c r="W27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -10081,7 +13021,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <f>'Raw Fan Flow'!B20</f>
@@ -10089,7 +13029,7 @@
       </c>
       <c r="C1" t="str">
         <f>'Raw Fan Flow'!C20</f>
-        <v>w^5 +</v>
+        <v>q^5 +</v>
       </c>
       <c r="D1">
         <f>'Raw Fan Flow'!D20</f>
@@ -10097,7 +13037,7 @@
       </c>
       <c r="E1" t="str">
         <f>'Raw Fan Flow'!E20</f>
-        <v>w^4+</v>
+        <v>q^4+</v>
       </c>
       <c r="F1">
         <f>'Raw Fan Flow'!F20</f>
@@ -10105,7 +13045,7 @@
       </c>
       <c r="G1" t="str">
         <f>'Raw Fan Flow'!G20</f>
-        <v xml:space="preserve">w^3 + </v>
+        <v xml:space="preserve">q^3 + </v>
       </c>
       <c r="H1">
         <f>'Raw Fan Flow'!H20</f>
@@ -10113,7 +13053,7 @@
       </c>
       <c r="I1" t="str">
         <f>'Raw Fan Flow'!I20</f>
-        <v xml:space="preserve">w^2 + </v>
+        <v xml:space="preserve">q^2 + </v>
       </c>
       <c r="J1">
         <f>'Raw Fan Flow'!J20</f>
@@ -10121,19 +13061,19 @@
       </c>
       <c r="K1" t="str">
         <f>'Raw Fan Flow'!K20</f>
-        <v xml:space="preserve">w + </v>
+        <v xml:space="preserve">q + </v>
       </c>
       <c r="L1">
         <f>'Raw Fan Flow'!L20</f>
         <v>1.9028</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <f>'Raw Line Loss'!B25</f>
@@ -10148,18 +13088,18 @@
         <v>-4.4383999999999997</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>-5.1529999999999996E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2.6216400000000002</v>
@@ -10167,25 +13107,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/Vent_Photon/datasheets/airflow model.xlsx
+++ b/Vent_Photon/datasheets/airflow model.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Airflow, cfm</t>
   </si>
@@ -262,16 +262,25 @@
     <t>Nuo=Nusselt Number=hf/h= ratio forced convection to conduction</t>
   </si>
   <si>
-    <t>h = indoor air/wall convection coeff =</t>
-  </si>
-  <si>
-    <t>hf, BTU/hr/ft^2/F</t>
-  </si>
-  <si>
     <t>log10(Red)</t>
   </si>
   <si>
-    <t>log10(hf)</t>
+    <t>hfi, BTU/hr/ft^2/F</t>
+  </si>
+  <si>
+    <t>hfo, BTU/hr/ft^2/F</t>
+  </si>
+  <si>
+    <t>hi = indoor air/wall convection coeff =</t>
+  </si>
+  <si>
+    <t>ho = outdoor air/wall convection coeff =</t>
+  </si>
+  <si>
+    <t>log10(hfi)</t>
+  </si>
+  <si>
+    <t>log10(hfo)</t>
   </si>
 </sst>
 </file>
@@ -623,6 +632,744 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Two Fans in Series Same Duty Cycle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wmodel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$F$6:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.979374999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.7011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.165175000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.371600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.320375000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.011500000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.444974999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.620800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.53897500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118.19950000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.60237499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.74760000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.63517500000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.26510000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>167.63737500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176.75200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185.60897500000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194.20830000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>202.54997500000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210.63400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496588712"/>
+        <c:axId val="496585968"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model (2)'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dw/dN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model (2)'!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.6216400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5701100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.51858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4670500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4155200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3639900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3124600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2609300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2094000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1578700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1063400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0548100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0032800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9517500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9002200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8486900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7971600000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7456300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6941000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6425700000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5910400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496579696"/>
+        <c:axId val="496589104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="496588712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496585968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496585968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496588712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496589104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496579696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496579696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="496589104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3149,7 +3896,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hf, BTU/hr/ft^2/F</c:v>
+                  <c:v>hfi, BTU/hr/ft^2/F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3549,11 +4296,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$N$5</c:f>
+              <c:f>Model!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log10(hf)</c:v>
+                  <c:v>log10(hfi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3622,7 +4369,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Model!$M$6:$M$26</c:f>
+              <c:f>Model!$N$6:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3691,7 +4438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Model!$N$6:$N$26</c:f>
+              <c:f>Model!$O$6:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4064,6 +4811,743 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log10(hf)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.899759405074366E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.89022462817147852"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log10(hfi)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1472003499562553E-2"/>
+                  <c:y val="0.18019757946923301"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$N$6:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>3.5224231756473978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8278816386401773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.000602631001021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1195898644446229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2097271049543386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2821037467636831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3425971816401363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3946636201992275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4404695183571166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4814273174815966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.518469954620481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5522128656044138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5830541806708425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6112477390531712</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6369641372136581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6603357073717664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6814913771115219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7005709285931276</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.717734111982006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7331512802226463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$O$6:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>1.0929544582466599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3772236912685247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5193260519048848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6138802961281882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6844710404812877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7407453009765368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7875997898018208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8278432361571624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8632093838861647</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8948173307499576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9234013353306418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9494433946927667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9732539700595801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9950299649231971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0149027005587734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0329731624392848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0493392974130091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0641073141144473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0773989400377721</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0893443088995292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log10(hfo)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20408355205599299"/>
+                  <c:y val="3.6620370370370373E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$N$6:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>3.5224231756473978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8278816386401773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.000602631001021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1195898644446229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2097271049543386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2821037467636831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3425971816401363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3946636201992275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4404695183571166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4814273174815966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.518469954620481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5522128656044138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5830541806708425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6112477390531712</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6369641372136581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6603357073717664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6814913771115219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7005709285931276</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.717734111982006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7331512802226463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$P$6:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="1">
+                  <c:v>1.6950144495746222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.979283682596487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1213860432328473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2159402874561507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.28653103180925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3428052923044991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3896597811297831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4299032274851249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.465269375214127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4968773220779199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5254613266586041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.551503386020729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5753139613875424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5970899562511596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6169626918867355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6350331537672473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6513992887409716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6661673054424098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6794589313657342</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6914043002274912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571792824"/>
+        <c:axId val="571791648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571792824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571791648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571791648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571792824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Two Fans</a:t>
             </a:r>
@@ -4820,745 +6304,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Two Fans in Series Same Duty Cycle</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model (2)'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wmodel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model (2)'!$A$6:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model (2)'!$F$6:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.979374999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.7011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.165175000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.371600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.320375000000013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.011500000000012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.444974999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.620800000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107.53897500000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>118.19950000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>128.60237499999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138.74760000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>148.63517500000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>158.26510000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>167.63737500000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>176.75200000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>185.60897500000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>194.20830000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>202.54997500000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210.63400000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="496588712"/>
-        <c:axId val="496585968"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Model (2)'!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dw/dN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Model (2)'!$A$6:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Model (2)'!$G$6:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2.6216400000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5701100000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.51858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4670500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4155200000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3639900000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3124600000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2609300000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2094000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1578700000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1063400000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0548100000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0032800000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9517500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9002200000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8486900000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7971600000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7456300000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6941000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6425700000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5910400000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="496579696"/>
-        <c:axId val="496589104"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="496588712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="496585968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="496585968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="496588712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="496589104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="496579696"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="496579696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496589104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6434,6 +7220,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10790,7 +12092,7 @@
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
@@ -10814,13 +12116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>135683</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>456154</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>88303</xdr:rowOff>
@@ -10882,16 +12184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10905,6 +12207,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11609,10 +12941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11622,10 +12954,10 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="12" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -11673,11 +13005,11 @@
         <f>'Raw Fan Flow'!L20</f>
         <v>1.9028</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -11696,14 +13028,14 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11716,25 +13048,25 @@
       <c r="D3">
         <v>2.6216400000000002</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>31</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4.3790000000000003E-2</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="S4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
         <v>47</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -11771,24 +13103,30 @@
       <c r="L5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
         <v>42</v>
       </c>
-      <c r="W5">
-        <f>PI()*$W$7^2/4</f>
+      <c r="X5">
+        <f>PI()*$X$7^2/4</f>
         <v>0.19634954084936207</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -11816,25 +13154,25 @@
         <v>2.6216400000000002</v>
       </c>
       <c r="H6" s="7">
-        <f>B6/$W$5*60</f>
+        <f>B6/$X$5*60</f>
         <v>3.0557749073643906E-2</v>
       </c>
       <c r="I6" s="4">
-        <f>$W$8*H6*$W$7/$W$3</f>
+        <f>$X$8*H6*$X$7/$X$3</f>
         <v>2.5784627272691076E-2</v>
       </c>
       <c r="J6">
         <f>(0.79*LN(I6)-1.64)^-2</f>
         <v>4.8735073287015596E-2</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>29</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -11862,11 +13200,11 @@
         <v>2.5701100000000001</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H26" si="5">B7/$W$5*60</f>
+        <f t="shared" ref="H7:H26" si="5">B7/$X$5*60</f>
         <v>3946.2416695119009</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" ref="I7:I26" si="6">$W$8*H7*$W$7/$W$3</f>
+        <f t="shared" ref="I7:I26" si="6">$X$8*H7*$X$7/$X$3</f>
         <v>3329.8385404993082</v>
       </c>
       <c r="J7">
@@ -11874,30 +13212,38 @@
         <v>4.3997719674364777E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K26" si="8">(J7/8)*(I7-1000)*$W$11/(1+12.7*(J7/8)^0.5*($W$11^0.666-1))</f>
+        <f t="shared" ref="K7:K26" si="8">(J7/8)*(I7-1000)*$X$11/(1+12.7*(J7/8)^0.5*($X$11^0.666-1))</f>
         <v>11.260606258822163</v>
       </c>
       <c r="L7">
-        <f>K7*$W$27</f>
+        <f>$K7*$X$27</f>
         <v>12.386666884704381</v>
       </c>
       <c r="M7">
+        <f>$K7*$X$28</f>
+        <v>49.546667538817523</v>
+      </c>
+      <c r="N7">
         <f>LOG10(I7)</f>
         <v>3.5224231756473978</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f>LOG10(L7)</f>
         <v>1.0929544582466599</v>
       </c>
-      <c r="S7" t="s">
+      <c r="P7">
+        <f>LOG10(M7)</f>
+        <v>1.6950144495746222</v>
+      </c>
+      <c r="T7" t="s">
         <v>30</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f>6/12</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>10</v>
       </c>
@@ -11941,28 +13287,36 @@
         <v>21.668607657963769</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L26" si="9">K8*$W$27</f>
+        <f t="shared" ref="L8:L26" si="9">$K8*$X$27</f>
         <v>23.835468423760148</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M26" si="10">LOG10(I8)</f>
+        <f t="shared" ref="M8:M26" si="10">$K8*$X$28</f>
+        <v>95.34187369504059</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N26" si="11">LOG10(I8)</f>
         <v>3.8278816386401773</v>
       </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N26" si="11">LOG10(L8)</f>
+      <c r="O8">
+        <f t="shared" ref="O8:P26" si="12">LOG10(L8)</f>
         <v>1.3772236912685247</v>
       </c>
-      <c r="S8" t="s">
+      <c r="P8">
+        <f t="shared" si="12"/>
+        <v>1.979283682596487</v>
+      </c>
+      <c r="T8" t="s">
         <v>45</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>15</v>
       </c>
@@ -11978,7 +13332,7 @@
         <v>3.5690531625737411E-2</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E26" si="12">C9-D9</f>
+        <f t="shared" ref="E9:E26" si="13">C9-D9</f>
         <v>8.3686088683809778E-9</v>
       </c>
       <c r="F9" s="5">
@@ -12011,14 +13365,22 @@
       </c>
       <c r="M9">
         <f t="shared" si="10"/>
-        <v>4.000602631001021</v>
+        <v>132.2470652589486</v>
       </c>
       <c r="N9">
         <f t="shared" si="11"/>
+        <v>4.000602631001021</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="12"/>
         <v>1.5193260519048848</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="12"/>
+        <v>2.1213860432328473</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>20</v>
       </c>
@@ -12034,7 +13396,7 @@
         <v>5.9770513966486492E-2</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4726116680003933E-8</v>
       </c>
       <c r="F10" s="5">
@@ -12067,14 +13429,22 @@
       </c>
       <c r="M10">
         <f t="shared" si="10"/>
-        <v>4.1195898644446229</v>
+        <v>164.41456488049988</v>
       </c>
       <c r="N10">
         <f t="shared" si="11"/>
+        <v>4.1195898644446229</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
         <v>1.6138802961281882</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>2.2159402874561507</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>25</v>
       </c>
@@ -12090,7 +13460,7 @@
         <v>8.8333467120359541E-2</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0165377966113773E-8</v>
       </c>
       <c r="F11" s="5">
@@ -12123,20 +13493,28 @@
       </c>
       <c r="M11">
         <f t="shared" si="10"/>
-        <v>4.2097271049543386</v>
+        <v>193.433206824845</v>
       </c>
       <c r="N11">
         <f t="shared" si="11"/>
+        <v>4.2097271049543386</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
         <v>1.6844710404812877</v>
       </c>
-      <c r="S11" t="s">
+      <c r="P11">
+        <f t="shared" si="12"/>
+        <v>2.28653103180925</v>
+      </c>
+      <c r="T11" t="s">
         <v>49</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>30</v>
       </c>
@@ -12152,7 +13530,7 @@
         <v>0.12087545360938616</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0767557943880401E-7</v>
       </c>
       <c r="F12" s="5">
@@ -12185,17 +13563,25 @@
       </c>
       <c r="M12">
         <f t="shared" si="10"/>
-        <v>4.2821037467636831</v>
+        <v>220.19390441093259</v>
       </c>
       <c r="N12">
         <f t="shared" si="11"/>
+        <v>4.2821037467636831</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
         <v>1.7407453009765368</v>
       </c>
-      <c r="S12" t="s">
+      <c r="P12">
+        <f t="shared" si="12"/>
+        <v>2.3428052923044991</v>
+      </c>
+      <c r="T12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>35</v>
       </c>
@@ -12211,7 +13597,7 @@
         <v>0.15710382586500007</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.903373928584088E-9</v>
       </c>
       <c r="F13" s="5">
@@ -12244,17 +13630,25 @@
       </c>
       <c r="M13">
         <f t="shared" si="10"/>
-        <v>4.3425971816401363</v>
+        <v>245.27866917156609</v>
       </c>
       <c r="N13">
         <f t="shared" si="11"/>
+        <v>4.3425971816401363</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
         <v>1.7875997898018208</v>
       </c>
-      <c r="S13" t="s">
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>2.3896597811297831</v>
+      </c>
+      <c r="T13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>40</v>
       </c>
@@ -12270,7 +13664,7 @@
         <v>0.19686830344254228</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0017595006295288E-7</v>
       </c>
       <c r="F14" s="5">
@@ -12303,14 +13697,22 @@
       </c>
       <c r="M14">
         <f t="shared" si="10"/>
-        <v>4.3946636201992275</v>
+        <v>269.09351242501765</v>
       </c>
       <c r="N14">
         <f t="shared" si="11"/>
+        <v>4.3946636201992275</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
         <v>1.8278432361571624</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="12"/>
+        <v>2.4299032274851249</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45</v>
       </c>
@@ -12326,7 +13728,7 @@
         <v>0.24009465894304488</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9062182873841316E-7</v>
       </c>
       <c r="F15" s="5">
@@ -12359,17 +13761,25 @@
       </c>
       <c r="M15">
         <f t="shared" si="10"/>
-        <v>4.4404695183571166</v>
+        <v>291.92371367064885</v>
       </c>
       <c r="N15">
         <f t="shared" si="11"/>
+        <v>4.4404695183571166</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
         <v>1.8632093838861647</v>
       </c>
-      <c r="S15" t="s">
+      <c r="P15">
+        <f t="shared" si="12"/>
+        <v>2.465269375214127</v>
+      </c>
+      <c r="T15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>50</v>
       </c>
@@ -12385,7 +13795,7 @@
         <v>0.28672468016316455</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0717736476095752E-7</v>
       </c>
       <c r="F16" s="5">
@@ -12418,14 +13828,22 @@
       </c>
       <c r="M16">
         <f t="shared" si="10"/>
-        <v>4.4814273174815966</v>
+        <v>313.9621699712053</v>
       </c>
       <c r="N16">
         <f t="shared" si="11"/>
+        <v>4.4814273174815966</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
         <v>1.8948173307499576</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="12"/>
+        <v>2.4968773220779199</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>55</v>
       </c>
@@ -12441,7 +13859,7 @@
         <v>0.33665054358803415</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0624350615939804E-7</v>
       </c>
       <c r="F17" s="5">
@@ -12474,14 +13892,22 @@
       </c>
       <c r="M17">
         <f t="shared" si="10"/>
-        <v>4.518469954620481</v>
+        <v>335.32144319604544</v>
       </c>
       <c r="N17">
         <f t="shared" si="11"/>
+        <v>4.518469954620481</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
         <v>1.9234013353306418</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="12"/>
+        <v>2.5254613266586041</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>60</v>
       </c>
@@ -12497,7 +13923,7 @@
         <v>0.38965789362465036</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0721312327109942E-7</v>
       </c>
       <c r="F18" s="5">
@@ -12530,14 +13956,22 @@
       </c>
       <c r="M18">
         <f t="shared" si="10"/>
-        <v>4.5522128656044138</v>
+        <v>356.04376595626599</v>
       </c>
       <c r="N18">
         <f t="shared" si="11"/>
+        <v>4.5522128656044138</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
         <v>1.9494433946927667</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="12"/>
+        <v>2.551503386020729</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>65</v>
       </c>
@@ -12553,7 +13987,7 @@
         <v>0.4453760235926626</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.6985782498065731E-7</v>
       </c>
       <c r="F19" s="5">
@@ -12586,14 +14020,22 @@
       </c>
       <c r="M19">
         <f t="shared" si="10"/>
-        <v>4.5830541806708425</v>
+        <v>376.10920395438222</v>
       </c>
       <c r="N19">
         <f t="shared" si="11"/>
+        <v>4.5830541806708425</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
         <v>1.9732539700595801</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="12"/>
+        <v>2.5753139613875424</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>70</v>
       </c>
@@ -12609,7 +14051,7 @@
         <v>0.50325385502989284</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.6762268556801416E-7</v>
       </c>
       <c r="F20" s="5">
@@ -12642,14 +14084,22 @@
       </c>
       <c r="M20">
         <f t="shared" si="10"/>
-        <v>4.6112477390531712</v>
+        <v>395.44852159832732</v>
       </c>
       <c r="N20">
         <f t="shared" si="11"/>
+        <v>4.6112477390531712</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
         <v>1.9950299649231971</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="12"/>
+        <v>2.5970899562511596</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>75</v>
       </c>
@@ -12665,7 +14115,7 @@
         <v>0.56258140288174074</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0818251716671057E-7</v>
       </c>
       <c r="F21" s="5">
@@ -12698,14 +14148,22 @@
       </c>
       <c r="M21">
         <f t="shared" si="10"/>
-        <v>4.6369641372136581</v>
+        <v>413.96411166155895</v>
       </c>
       <c r="N21">
         <f t="shared" si="11"/>
+        <v>4.6369641372136581</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
         <v>2.0149027005587734</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="12"/>
+        <v>2.6169626918867355</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>80</v>
       </c>
@@ -12721,7 +14179,7 @@
         <v>0.6225448814824287</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1864342943150916E-7</v>
       </c>
       <c r="F22" s="5">
@@ -12754,14 +14212,22 @@
       </c>
       <c r="M22">
         <f t="shared" si="10"/>
-        <v>4.6603357073717664</v>
+        <v>431.55201997975064</v>
       </c>
       <c r="N22">
         <f t="shared" si="11"/>
+        <v>4.6603357073717664</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
         <v>2.0329731624392848</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="12"/>
+        <v>2.6350331537672473</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>85</v>
       </c>
@@ -12777,7 +14243,7 @@
         <v>0.68231612848134748</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.2097468901073327E-6</v>
       </c>
       <c r="F23" s="5">
@@ -12810,14 +14276,22 @@
       </c>
       <c r="M23">
         <f t="shared" si="10"/>
-        <v>4.6814913771115219</v>
+        <v>448.12511941461446</v>
       </c>
       <c r="N23">
         <f t="shared" si="11"/>
+        <v>4.6814913771115219</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="12"/>
         <v>2.0493392974130091</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="12"/>
+        <v>2.6513992887409716</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>90</v>
       </c>
@@ -12833,7 +14307,7 @@
         <v>0.74112822482274321</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.5771979739761548E-7</v>
       </c>
       <c r="F24" s="5">
@@ -12866,14 +14340,22 @@
       </c>
       <c r="M24">
         <f t="shared" si="10"/>
-        <v>4.7005709285931276</v>
+        <v>463.62549011217408</v>
       </c>
       <c r="N24">
         <f t="shared" si="11"/>
+        <v>4.7005709285931276</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="12"/>
         <v>2.0641073141144473</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="12"/>
+        <v>2.6661673054424098</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>95</v>
       </c>
@@ -12889,7 +14371,7 @@
         <v>0.79835208567537286</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.379807213153228E-6</v>
       </c>
       <c r="F25" s="5">
@@ -12922,14 +14404,22 @@
       </c>
       <c r="M25">
         <f t="shared" si="10"/>
-        <v>4.717734111982006</v>
+        <v>478.0341591774727</v>
       </c>
       <c r="N25">
         <f t="shared" si="11"/>
+        <v>4.717734111982006</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="12"/>
         <v>2.0773989400377721</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>2.6794589313657342</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>100</v>
       </c>
@@ -12945,7 +14435,7 @@
         <v>0.85351188868564321</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.3855183647129081E-7</v>
       </c>
       <c r="F26" s="5">
@@ -12978,24 +14468,44 @@
       </c>
       <c r="M26">
         <f t="shared" si="10"/>
-        <v>4.7331512802226463</v>
+        <v>491.36509259512144</v>
       </c>
       <c r="N26">
         <f t="shared" si="11"/>
+        <v>4.7331512802226463</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
         <v>2.0893443088995292</v>
       </c>
-      <c r="S26" t="s">
+      <c r="P26">
+        <f t="shared" si="12"/>
+        <v>2.6914043002274912</v>
+      </c>
+      <c r="T26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="S27" t="s">
-        <v>57</v>
-      </c>
-      <c r="W27">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <f>X27*4</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y28" t="s">
         <v>55</v>
       </c>
     </row>
